--- a/Actural_Experiments/session_file_clean_up.xlsx
+++ b/Actural_Experiments/session_file_clean_up.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengh\pythonProject\NAO_Autism_Music_Project\Actural_Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Howard_Feng\NAO_Music_Autism_Project\Actural_Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152F943-E6CC-41E6-970D-8560A180F4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,8 +86,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -362,20 +389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="12.73046875" style="2"/>
+    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="12.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="63.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="63.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,11 +449,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>43649</v>
+      </c>
       <c r="C2" s="3">
         <v>43715</v>
       </c>
@@ -449,7 +478,7 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -478,7 +507,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -507,7 +536,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -536,7 +565,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -562,7 +591,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -585,7 +614,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
